--- a/Test case/Перевод ручки в рабочее состояние.xlsx
+++ b/Test case/Перевод ручки в рабочее состояние.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Название:</t>
   </si>
@@ -70,9 +70,6 @@
     <t>2.Листок бумаги.</t>
   </si>
   <si>
-    <t>4. Нажать на кнопку ручки чтобы перевести её в исходное состояние.</t>
-  </si>
-  <si>
     <t>3.Написать ручкой на листке любое слово.</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>Проверка перевода ручки в рабочее состояние.</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку ручки чтобы перевести её в исходное состояние.</t>
   </si>
 </sst>
 </file>
@@ -241,9 +241,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,19 +263,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,30 +596,30 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
@@ -628,16 +628,16 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
@@ -646,170 +646,153 @@
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>16</v>
-      </c>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="19"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
       <c r="D27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B20:C20"/>
@@ -821,6 +804,20 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
